--- a/iShares/iShares-costs.xlsx
+++ b/iShares/iShares-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1135" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845EF7BA-8FF4-42DE-B127-A716CD5143BE}"/>
+  <xr:revisionPtr revIDLastSave="1143" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD91384-646B-43B8-A0D3-2F31A933E543}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="1365" windowWidth="21915" windowHeight="16035" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12015" yWindow="1500" windowWidth="21870" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="148">
   <si>
     <t>Transaction costs</t>
   </si>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>iShares II PLC</t>
+  </si>
+  <si>
+    <t>iShares MSCI World Islamic UCITS ETF</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>jul</t>
   </si>
 </sst>
 </file>
@@ -664,41 +673,31 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -721,8 +720,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -730,7 +727,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1019,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB11DA5-57F8-4691-A562-35D1BBAF2472}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,46 +1033,40 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1084,10 +1074,10 @@
       <c r="B16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1161,7 +1151,7 @@
       <c r="B23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="44" t="s">
         <v>117</v>
       </c>
       <c r="D23" t="s">
@@ -1170,6 +1160,28 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,300 +1205,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="45">
+      <c r="C1" s="35">
         <v>2014</v>
       </c>
-      <c r="D1" s="45">
+      <c r="D1" s="35">
         <v>2015</v>
       </c>
-      <c r="E1" s="45">
+      <c r="E1" s="35">
         <v>2016</v>
       </c>
-      <c r="F1" s="45">
+      <c r="F1" s="35">
         <v>2017</v>
       </c>
-      <c r="G1" s="45">
+      <c r="G1" s="35">
         <v>2018</v>
       </c>
-      <c r="H1" s="45">
+      <c r="H1" s="35">
         <v>2019</v>
       </c>
-      <c r="I1" s="45">
+      <c r="I1" s="35">
         <v>2020</v>
       </c>
-      <c r="J1" s="45">
+      <c r="J1" s="35">
         <v>2021</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="25">
         <v>5.05</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="25">
         <v>-0.77</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="25">
         <v>7.73</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="25">
         <v>22.45</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="25">
         <v>-8.65</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="25">
         <v>27.76</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="25">
         <v>15.95</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="25">
         <v>21.9</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="27">
         <f>AVERAGE(C2:J2)</f>
         <v>11.427500000000002</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="25">
         <v>5.5</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="25">
         <v>-0.32</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="25">
         <v>8.15</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="25">
         <v>23.07</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="25">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="25">
         <v>28.4</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="25">
         <v>16.5</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="25">
         <v>22.35</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="28">
         <v>4.9400000000000004</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="28">
         <v>-0.87</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="28">
         <v>7.51</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="28">
         <v>22.4</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="28">
         <v>-8.7100000000000009</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="28">
         <v>27.67</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="25">
         <v>15.9</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="25">
         <v>21.82</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="25">
         <f t="shared" ref="C5:J5" si="0">C3-C2</f>
         <v>0.45000000000000018</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="25">
         <f t="shared" si="0"/>
         <v>0.45000000000000107</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="25">
         <f t="shared" si="0"/>
         <v>0.63999999999999702</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="25">
         <f t="shared" si="0"/>
         <v>0.55000000000000071</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="25">
         <f t="shared" si="0"/>
         <v>0.45000000000000284</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27">
         <f>AVERAGE(C5:J5)</f>
         <v>0.50375000000000036</v>
       </c>
-      <c r="N5" s="37"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="25">
         <f>C2-C4</f>
         <v>0.10999999999999943</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="25">
         <f t="shared" ref="D6:J6" si="1">D2-D4</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="25">
         <f t="shared" si="1"/>
         <v>0.22000000000000064</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="25">
         <f t="shared" si="1"/>
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="25">
         <f t="shared" si="1"/>
         <v>6.0000000000000497E-2</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="25">
         <f t="shared" si="1"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="25">
         <f t="shared" si="1"/>
         <v>4.9999999999998934E-2</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="25">
         <f t="shared" si="1"/>
         <v>7.9999999999998295E-2</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27">
         <f>AVERAGE(C6:J6)</f>
         <v>9.4999999999999793E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="36"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="36"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="30">
         <v>-14.38</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="30">
         <v>9.61</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="30">
         <v>36.979999999999997</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="30">
         <v>-14.83</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="30">
         <v>17.45</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="30">
         <v>18.350000000000001</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="30">
         <v>-0.24</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="27">
         <f>AVERAGE(C9:J9)</f>
         <v>7.5628571428571423</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="30">
         <v>-13.55</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="30">
         <v>10.3</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="30">
         <v>37.28</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="30">
         <v>-14.71</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="32">
         <v>18.100000000000001</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="30">
         <v>18.78</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="30">
         <v>0.06</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="29" t="s">
         <v>119</v>
       </c>
       <c r="D11">
@@ -1504,93 +1516,93 @@
       <c r="H11">
         <v>17.64</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="32">
         <v>18.39</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="32">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="30">
         <f>D10-D9</f>
         <v>0.83000000000000007</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="30">
         <f t="shared" ref="E12:I12" si="2">E10-E9</f>
         <v>0.69000000000000128</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="30">
         <f t="shared" si="2"/>
         <v>0.30000000000000426</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="30">
         <f t="shared" si="2"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="30">
         <f t="shared" si="2"/>
         <v>0.65000000000000213</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="30">
         <f t="shared" si="2"/>
         <v>0.42999999999999972</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="30">
         <f t="shared" ref="J12" si="3">J10-J9</f>
         <v>0.3</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="M12" s="43">
+      <c r="K12" s="26"/>
+      <c r="M12" s="33">
         <f>AVERAGE(E12:J12)</f>
         <v>0.41500000000000109</v>
       </c>
-      <c r="N12" s="41"/>
+      <c r="N12" s="31"/>
       <c r="O12">
         <v>2016</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="30">
         <f>D9-D11</f>
         <v>-0.52000000000000135</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="30">
         <f t="shared" ref="E13:I13" si="4">E9-E11</f>
         <v>-0.29000000000000092</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="30">
         <f t="shared" si="4"/>
         <v>0.14999999999999858</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="30">
         <f t="shared" si="4"/>
         <v>0.20999999999999908</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="30">
         <f t="shared" si="4"/>
         <v>-0.19000000000000128</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="30">
         <f t="shared" si="4"/>
         <v>-3.9999999999999147E-2</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="30">
         <f t="shared" ref="J13" si="5">J9-J11</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43">
+      <c r="K13" s="26"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33">
         <f>AVERAGE(E13:J13)</f>
         <v>-2.0000000000000611E-2</v>
       </c>
@@ -1599,133 +1611,133 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="36"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="36"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31">
         <v>25.73</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="31">
         <v>15.83</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="31">
         <v>15.81</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31">
         <v>26.78</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="31">
         <v>16.47</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="31">
         <v>16.18</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31">
         <v>26.19</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="31">
         <v>15.96</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="31">
         <v>15.75</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31">
         <f>H17-H16</f>
         <v>1.0500000000000007</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="31">
         <f>I17-I16</f>
         <v>0.63999999999999879</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="31">
         <f>J17-J16</f>
         <v>0.36999999999999922</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="43">
+      <c r="K19" s="26"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="33">
         <f>AVERAGE(I19:J19)</f>
         <v>0.50499999999999901</v>
       </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41">
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
         <v>2019</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="30">
         <f t="shared" ref="H20:J20" si="6">H16-H18</f>
         <v>-0.46000000000000085</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="30">
         <f t="shared" si="6"/>
         <v>-0.13000000000000078</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="30">
         <f t="shared" si="6"/>
         <v>6.0000000000000497E-2</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="N20" s="49">
+      <c r="K20" s="26"/>
+      <c r="N20" s="37">
         <f>AVERAGE(I20:J20)</f>
         <v>-3.5000000000000142E-2</v>
       </c>
@@ -1734,13 +1746,13 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K21" s="36"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="36"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D23">
@@ -1764,13 +1776,13 @@
       <c r="J23">
         <v>18.170000000000002</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="27">
         <f>AVERAGE(C23:J23)</f>
         <v>8.2528571428571436</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="29" t="s">
         <v>122</v>
       </c>
       <c r="D24">
@@ -1794,10 +1806,10 @@
       <c r="J24">
         <v>19.29</v>
       </c>
-      <c r="K24" s="36"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="29" t="s">
         <v>123</v>
       </c>
       <c r="D25">
@@ -1821,10 +1833,10 @@
       <c r="J25">
         <v>18.75</v>
       </c>
-      <c r="K25" s="36"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D26">
@@ -1855,14 +1867,14 @@
         <f t="shared" si="7"/>
         <v>1.1199999999999974</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="M26" s="49">
+      <c r="K26" s="26"/>
+      <c r="M26" s="37">
         <f>AVERAGE(D26:J26)</f>
         <v>0.72428571428571331</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D27">
@@ -1893,14 +1905,14 @@
         <f t="shared" si="8"/>
         <v>-0.57999999999999829</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="N27" s="49">
+      <c r="K27" s="26"/>
+      <c r="N27" s="37">
         <f>AVERAGE(D27:J27)</f>
         <v>-0.35000000000000003</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="24" t="s">
         <v>71</v>
       </c>
       <c r="D30">
@@ -1924,13 +1936,13 @@
       <c r="J30">
         <v>-2.64</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="37">
         <f>AVERAGE(D30:J30)</f>
         <v>7.055714285714286</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D31">
@@ -1956,7 +1968,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="29" t="s">
         <v>49</v>
       </c>
       <c r="D32">
@@ -1982,7 +1994,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D33">
@@ -2013,13 +2025,13 @@
         <f t="shared" si="9"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="37">
         <f>AVERAGE(D33:J33)</f>
         <v>0.9242857142857146</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D34">
@@ -2050,22 +2062,22 @@
         <f t="shared" si="10"/>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49">
+      <c r="M34" s="37"/>
+      <c r="N34" s="37">
         <f>AVERAGE(D34:J34)</f>
         <v>-0.54000000000000048</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D37">
@@ -2089,11 +2101,11 @@
       <c r="J37">
         <v>-2.59</v>
       </c>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="29" t="s">
         <v>50</v>
       </c>
       <c r="D38">
@@ -2117,11 +2129,11 @@
       <c r="J38">
         <v>-2.2200000000000002</v>
       </c>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="29" t="s">
         <v>49</v>
       </c>
       <c r="D39">
@@ -2145,11 +2157,11 @@
       <c r="J39">
         <v>-2.54</v>
       </c>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D40">
@@ -2180,14 +2192,14 @@
         <f t="shared" si="11"/>
         <v>0.36999999999999966</v>
       </c>
-      <c r="M40" s="49">
+      <c r="M40" s="37">
         <f>AVERAGE(D40:J40)</f>
         <v>0.87999999999999923</v>
       </c>
-      <c r="N40" s="49"/>
+      <c r="N40" s="37"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D41">
@@ -2218,13 +2230,13 @@
         <f t="shared" si="12"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N41" s="37">
         <f>AVERAGE(D41:J41)</f>
         <v>-0.49571428571428516</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="24" t="s">
         <v>83</v>
       </c>
       <c r="D44">
@@ -2250,7 +2262,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="24" t="s">
         <v>84</v>
       </c>
       <c r="D45">
@@ -2268,15 +2280,15 @@
       <c r="H45">
         <v>19.84</v>
       </c>
-      <c r="I45" s="55">
+      <c r="I45">
         <v>-3.35</v>
       </c>
-      <c r="J45" s="55">
+      <c r="J45">
         <v>20.77</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="24" t="s">
         <v>85</v>
       </c>
       <c r="D46">
@@ -2302,7 +2314,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D47">
@@ -2325,15 +2337,15 @@
         <f t="shared" si="13"/>
         <v>0.71000000000000085</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I47" s="37">
         <f>I45-I44</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="J47" s="49">
+      <c r="J47" s="37">
         <f>J45-J44</f>
         <v>0.73999999999999844</v>
       </c>
-      <c r="M47" s="49">
+      <c r="M47" s="37">
         <f>AVERAGE(E47:J47)</f>
         <v>0.66166666666666618</v>
       </c>
@@ -2342,7 +2354,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D48">
@@ -2406,7 +2418,7 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="54">
+      <c r="B2" s="42">
         <v>41730</v>
       </c>
       <c r="C2">
@@ -2417,7 +2429,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="54">
+      <c r="B3" s="42">
         <v>41760</v>
       </c>
       <c r="C3">
@@ -2518,327 +2530,315 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19">
+      <c r="B4" s="1">
         <v>2014</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="1">
         <v>2015</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="1">
         <v>2016</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="1">
         <v>2017</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="1">
         <v>2018</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="1">
         <v>2019</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="1">
         <v>2020</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="1">
         <v>2021</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="15">
         <v>1487510</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="15">
         <v>4268212</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="16">
         <v>6473287</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="16">
         <v>10938731</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="16">
         <v>14711738</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="16">
         <v>19581640</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="16">
         <v>23478559</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="16">
         <v>40303449</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="1"/>
+      <c r="L5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="15">
         <v>3363</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="15">
         <v>5351</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="16">
         <v>10764</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <v>17143</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="16">
         <v>26741</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="16">
         <v>34465</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="16">
         <v>45197</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="16">
         <v>62625</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="17">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>2E-3</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="17">
         <v>2E-3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <v>2E-3</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="17">
         <v>2E-3</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="17">
         <v>2E-3</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <v>2E-3</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="17">
         <v>2E-3</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="5">
         <f>AVERAGE(B7:I7)</f>
         <v>2.2374999999999999E-3</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <f>B6/B7</f>
         <v>862307.69230769237</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <f t="shared" ref="C8:I8" si="0">C6/C7</f>
         <v>2675500</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>5382000</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>8571500</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>13370500</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>17232500</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>22598500</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="16">
         <f t="shared" si="0"/>
         <v>31312500</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="27"/>
-      <c r="L9" s="2" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="5"/>
+      <c r="L9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="15">
         <v>21877</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="15">
         <v>68989</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="16">
         <v>146778</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="16">
         <v>218802</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="16">
         <v>323631</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="16">
         <v>435291</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="16">
         <v>497088</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="16">
         <v>596959</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="L10" s="2" t="s">
+      <c r="J10" s="5"/>
+      <c r="L10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="15">
         <v>2530</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="15">
         <v>7895</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="16">
         <v>17329</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="16">
         <v>25220</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="16">
         <v>37451</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="16">
         <v>51767</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="16">
         <v>64057</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="16">
         <v>73274</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="18">
         <f>B11/B10</f>
         <v>0.11564656945650684</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="18">
         <f t="shared" ref="C12:H12" si="1">C11/C10</f>
         <v>0.11443853367928221</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="18">
         <f t="shared" si="1"/>
         <v>0.11806265244110153</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <f t="shared" si="1"/>
         <v>0.11526402866518587</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <f t="shared" si="1"/>
         <v>0.11572129987547547</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>0.11892504094961762</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="18">
         <f t="shared" si="1"/>
         <v>0.1288645068881164</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="18">
         <f t="shared" ref="I12" si="2">I11/I10</f>
         <v>0.12274544817985825</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="5">
         <f>AVERAGE(B12:I12)</f>
         <v>0.11870851001689303</v>
       </c>
@@ -2847,42 +2847,42 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="20">
         <f t="shared" ref="B13:H13" si="3">B11/B8</f>
         <v>2.9339875111507579E-3</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>2.9508503083535789E-3</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="20">
         <f t="shared" si="3"/>
         <v>3.2198067632850241E-3</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="20">
         <f t="shared" si="3"/>
         <v>2.9423088140932158E-3</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="20">
         <f t="shared" si="3"/>
         <v>2.8010171646535285E-3</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="20">
         <f t="shared" si="3"/>
         <v>3.004033077034673E-3</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="20">
         <f t="shared" si="3"/>
         <v>2.8345686660619066E-3</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="20">
         <f t="shared" ref="I13" si="4">I11/I8</f>
         <v>2.3400878243512975E-3</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="5">
         <f>AVERAGE(B13:H13)</f>
         <v>2.9552246149475263E-3</v>
       </c>
@@ -2891,545 +2891,507 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="20">
         <f>B10/B8</f>
         <v>2.5370294380017838E-2</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="20">
         <f>C10/C8</f>
         <v>2.5785460661558589E-2</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="20">
         <f t="shared" ref="D14:H14" si="5">D10/D8</f>
         <v>2.7272017837235228E-2</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="20">
         <f t="shared" si="5"/>
         <v>2.5526687277606021E-2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="20">
         <f t="shared" si="5"/>
         <v>2.4204853969559851E-2</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="20">
         <f t="shared" si="5"/>
         <v>2.5259886841723488E-2</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="20">
         <f t="shared" si="5"/>
         <v>2.1996504192756155E-2</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="20">
         <f t="shared" ref="I14" si="6">I10/I8</f>
         <v>1.906455888223553E-2</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="4"/>
       <c r="L14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="27"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="15">
         <v>7</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="15">
         <v>349</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="16">
         <v>947</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="16">
         <v>2133</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="16">
         <v>3345</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="16">
         <v>5560</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="16">
         <v>6134</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="16">
         <v>6429</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="5"/>
       <c r="L16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="38">
         <f t="shared" ref="B17:I17" si="7">B16/B8</f>
         <v>8.1177520071364855E-6</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="38">
         <f t="shared" si="7"/>
         <v>1.3044290786768829E-4</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="38">
         <f t="shared" si="7"/>
         <v>1.759568933481977E-4</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="38">
         <f t="shared" si="7"/>
         <v>2.4884792626728109E-4</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="38">
         <f t="shared" si="7"/>
         <v>2.5017762985677424E-4</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="38">
         <f t="shared" si="7"/>
         <v>3.2264616277382854E-4</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="38">
         <f t="shared" si="7"/>
         <v>2.7143394473084495E-4</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="38">
         <f t="shared" si="7"/>
         <v>2.0531736526946108E-4</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="5">
         <f>AVERAGE(B17:I17)</f>
         <v>2.0161757276515154E-4</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="36">
         <f>3/B5</f>
         <v>2.0167931644157014E-6</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="36">
         <f>137586/C5</f>
         <v>3.2235043620138834E-2</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="36">
         <f>491894/D5</f>
         <v>7.5988288484660105E-2</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="36">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="36">
         <v>0.10730000000000001</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="36">
         <v>0.12559999999999999</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="36">
         <v>0.1138</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="36">
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="J18" s="46"/>
+      <c r="J18" s="4"/>
       <c r="L18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="27"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20">
         <v>611</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="15">
         <v>1652</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="16">
         <v>1649</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="16">
         <v>2396</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="16">
         <v>2254</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="16">
         <v>2701</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="16">
         <v>2989</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="16">
         <v>3539</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="19">
         <f t="shared" ref="B21:I21" si="8">B20/B8</f>
         <v>7.0856378233719887E-4</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="19">
         <f t="shared" si="8"/>
         <v>6.1745468136796859E-4</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="19">
         <f t="shared" si="8"/>
         <v>3.0639167595689337E-4</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="19">
         <f t="shared" si="8"/>
         <v>2.7953100390830078E-4</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="19">
         <f t="shared" si="8"/>
         <v>1.685800830185857E-4</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="19">
         <f t="shared" si="8"/>
         <v>1.5673872044102714E-4</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="19">
         <f t="shared" si="8"/>
         <v>1.3226541584618448E-4</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="19">
         <f t="shared" si="8"/>
         <v>1.1302195608782435E-4</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="5">
         <f>AVERAGE(B21:I21)</f>
         <v>3.1031841487049795E-4</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="27"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20">
         <v>1E-4</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="20">
         <v>1E-4</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="20">
         <v>1E-4</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="20">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="20">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="20">
         <v>0</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="27"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="5">
         <f>J7+J13-J17+J21</f>
         <v>5.3014254570528723E-3</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="L25" s="8"/>
-      <c r="P25" s="7"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="L25" s="6"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="5">
         <f>TrackingDifference!M5/100</f>
         <v>5.0375000000000038E-3</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="L26" s="8"/>
-      <c r="P26" s="51"/>
+      <c r="L26" s="6"/>
+      <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="5">
         <f>B26-B25</f>
         <v>-2.6392545705286857E-4</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
+      <c r="E28" s="20"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="10">
         <f>I7+J13-I17+I21</f>
         <v>4.8629292057658889E-3</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="8"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="21">
         <f>B29-J13</f>
         <v>1.9077045908183626E-3</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="8"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="33"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="P32" s="4"/>
-      <c r="R32" s="52"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="P32" s="2"/>
+      <c r="R32" s="40"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,18 +3417,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3475,7 +3437,7 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3504,243 +3466,236 @@
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>1594449</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>4605402</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>9460691</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>12495330</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>14157723</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
         <v>19211332</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>17747108</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>3182</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>8100</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>17606</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>19891</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>24296</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <v>27227</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>34660</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>2E-3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="5">
         <f>AVERAGE(B7:H7)</f>
         <v>2.1285714285714285E-3</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <f t="shared" ref="B8:H8" si="0">B6/B7</f>
         <v>1272800</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>3240000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>7042400</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>9945500</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>13497777.777777778</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15126111.111111112</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>19255555.555555556</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>34764</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>79612</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>172015</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>276851</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>381237</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <v>352088</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <v>459852</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="L10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>3983</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>10068</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>21696</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>38608</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>48383</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <v>44319</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>150341</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="L11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="22">
         <f t="shared" ref="B12:H12" si="1">B11/B10</f>
         <v>0.11457254631227706</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="22">
         <f t="shared" si="1"/>
         <v>0.12646334723408531</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="22">
         <f t="shared" si="1"/>
         <v>0.12612853530215387</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="22">
         <f t="shared" si="1"/>
         <v>0.13945407457441006</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="22">
         <f t="shared" si="1"/>
         <v>0.12691055695013861</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="22">
         <f t="shared" si="1"/>
         <v>0.12587478130467383</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="22">
         <f t="shared" si="1"/>
         <v>0.326933448152884</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="5">
         <f>AVERAGE(B12:H12)</f>
         <v>0.15519104140437467</v>
       </c>
@@ -3749,117 +3704,113 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <f t="shared" ref="B13:H13" si="2">B11/B8</f>
         <v>3.1293211816467632E-3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <f t="shared" si="2"/>
         <v>3.1074074074074073E-3</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <f t="shared" si="2"/>
         <v>3.0807679200272635E-3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <f t="shared" si="2"/>
         <v>3.8819566638178069E-3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <f t="shared" si="2"/>
         <v>3.5845159697069475E-3</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <f t="shared" si="2"/>
         <v>2.9299665772945971E-3</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <f t="shared" si="2"/>
         <v>7.8076687824581645E-3</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="5">
         <f>AVERAGE(B13:H13)</f>
         <v>3.9316577860512786E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="L14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>610</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>4933</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>9146</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>10433</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <v>12223</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="13">
         <v>10337</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>19007</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <f t="shared" ref="B16:H16" si="3">B15/B8</f>
         <v>4.7925832809553738E-4</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <f t="shared" si="3"/>
         <v>1.5225308641975308E-3</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <f t="shared" si="3"/>
         <v>1.2987049869362718E-3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <f t="shared" si="3"/>
         <v>1.0490171434317027E-3</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="23">
         <f t="shared" si="3"/>
         <v>9.0555647020085608E-4</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="23">
         <f t="shared" si="3"/>
         <v>6.8338781356741464E-4</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="23">
         <f t="shared" si="3"/>
         <v>9.8709174841315637E-4</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="5">
         <f>AVERAGE(B16:H16)</f>
         <v>9.8936390783463846E-4</v>
       </c>
@@ -3868,144 +3819,139 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="22">
         <f>95333/B5</f>
         <v>5.9790560877143135E-2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="22">
         <v>0.1525</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="22">
         <v>0.1071</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="22">
         <v>0.1174</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="22">
         <v>0.1027</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="22">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="22">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="I17" s="33"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="2"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>1451</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>2644</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
         <v>5320</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>5561</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="13">
         <v>5689</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="13">
         <v>3944</v>
       </c>
-      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <f>B19/B8</f>
         <v>1.1400062853551226E-3</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="23">
         <f>C19/C8</f>
         <v>8.160493827160494E-4</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23">
         <f>E19/E8</f>
         <v>5.3491528832135134E-4</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="23">
         <f>F19/F8</f>
         <v>4.1199374382614422E-4</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="23">
         <f>G19/G8</f>
         <v>3.7610460204943623E-4</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="23">
         <f>H19/H8</f>
         <v>2.0482400461627236E-4</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="5">
         <f>AVERAGE(B20:H20)</f>
         <v>5.8064888448072945E-4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <f>I7+I13-I16+I20</f>
         <v>5.6515141912687984E-3</v>
       </c>
       <c r="C23" t="s">
         <v>142</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <f>TrackingDifference!M12/100</f>
         <v>4.1500000000000113E-3</v>
       </c>
@@ -4014,20 +3960,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <f>B24-B23</f>
         <v>-1.5015141912687871E-3</v>
       </c>
-      <c r="C25" s="18"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="21">
         <f>G7+I13-G16+G20</f>
         <v>5.4243745745333003E-3</v>
       </c>
@@ -4036,14 +3981,14 @@
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <f>B27-I13</f>
         <v>1.4927167884820217E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4069,19 +4014,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4090,7 +4035,7 @@
       <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4130,153 +4075,151 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>4734561</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>5047997</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>3166140</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>4715029</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>6294155</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>5078010</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>2778602</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>4062546</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>3772768</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>42886</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>42087</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>30851</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>32797</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>42293</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>40293</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>29657</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <v>6023</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <v>7292</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <f>AVERAGE(C7:J7)</f>
         <v>6.0750000000000005E-3</v>
       </c>
-      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>B6/B7</f>
         <v>5718133.333333334</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" ref="C8:J8" si="0">C6/C7</f>
         <v>5611600</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>4113466.666666667</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>4372933.333333334</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>5639066.666666667</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>5372400</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>3954266.666666667</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>3346111.111111111</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>4051111.111111111</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="M8" s="2" t="s">
+      <c r="K8" s="21"/>
+      <c r="M8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4290,118 +4233,118 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="29"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>167354</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>163206</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>123158</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>115883</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>144585</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>152689</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <v>115503</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="13">
         <v>63396</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <v>93995</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="5"/>
       <c r="M10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>19009</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>17470</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>13933</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>14701</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>18143</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>21015</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>23056</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <v>9502</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <v>30570</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <f t="shared" ref="B12:H12" si="1">B11/B10</f>
         <v>0.11358557309654983</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>0.10704263323652316</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>0.11313109988794881</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>0.12686071296048601</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>0.12548327973164575</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>0.13763270438603958</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>0.19961386284338936</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <f t="shared" ref="I12:J12" si="2">I11/I10</f>
         <v>0.14988327339264307</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <f t="shared" si="2"/>
         <v>0.32523006542901217</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <f>AVERAGE(C12:J12)</f>
         <v>0.16060970398346097</v>
       </c>
@@ -4410,287 +4353,284 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f>B11/B8</f>
         <v>3.3243366133470127E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:H13" si="3">C11/C8</f>
         <v>3.1131940979399813E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f t="shared" si="3"/>
         <v>3.3871673527600399E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>3.3618166295697771E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
         <v>3.2173763979854819E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <f t="shared" si="3"/>
         <v>3.9116595934777752E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" si="3"/>
         <v>5.8306639242000202E-3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <f t="shared" ref="I13:J13" si="4">I11/I8</f>
         <v>2.8397144280259009E-3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <f t="shared" si="4"/>
         <v>7.5460778935820079E-3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <f>AVERAGE(C13:J13)</f>
         <v>4.1509587896926227E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>2138</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>3036</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>3580</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>3125</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>3040</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>3477</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>1895</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="13">
         <v>824</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>1674</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <f>B15/B8</f>
         <v>3.7389824185048729E-4</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <f>C15/C8</f>
         <v>5.4102216836552849E-4</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <f t="shared" ref="D16:J16" si="5">D15/D8</f>
         <v>8.7031214547340441E-4</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <f t="shared" si="5"/>
         <v>7.1462328871543118E-4</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <f t="shared" si="5"/>
         <v>5.390963043529662E-4</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <f t="shared" si="5"/>
         <v>6.4719678356041995E-4</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="23">
         <f t="shared" si="5"/>
         <v>4.7922918703847316E-4</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="23">
         <f t="shared" si="5"/>
         <v>2.4625601859538438E-4</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="23">
         <f t="shared" si="5"/>
         <v>4.1321996708721889E-4</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f>AVERAGE(C16:J16)</f>
         <v>5.5636948289860329E-4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="22">
         <f>283768/B5</f>
         <v>5.9935440688165177E-2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="22">
         <f>585666/C5</f>
         <v>0.1160194825789318</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="22">
         <f>485017/D5</f>
         <v>0.15318874086427006</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="22">
         <v>0.14849999999999999</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="22">
         <v>0.17469999999999999</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="22">
         <v>0.12590000000000001</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="22">
         <v>0.1069</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="22">
         <v>0.12189999999999999</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="22">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>7297</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>4304</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>2947</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>2419</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
         <v>1766</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="13">
         <v>4584</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="13">
         <v>2456</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="13">
         <v>922</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <f>B19/B8</f>
         <v>1.2761157487291889E-3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <f t="shared" ref="C20:J20" si="6">C19/C8</f>
         <v>7.6698267873690211E-4</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <f t="shared" si="6"/>
         <v>7.1642734433243654E-4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <f t="shared" si="6"/>
         <v>5.5317559532884095E-4</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <f t="shared" si="6"/>
         <v>3.2871714689896507E-4</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <f t="shared" si="6"/>
         <v>1.1592541389891088E-3</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <f t="shared" si="6"/>
         <v>7.3398638552216503E-4</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <f t="shared" si="6"/>
         <v>2.2759188151398794E-4</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <f>AVERAGE(C20:J20)</f>
         <v>6.408764530460581E-4</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K21" s="5"/>
-      <c r="M21" s="8"/>
+      <c r="K21" s="3"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="M22" s="8"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="5">
         <f>K7+K13-K16+K20</f>
         <v>1.0310465759840078E-2</v>
       </c>
@@ -4699,10 +4639,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="5">
         <f>TrackingDifference!M33/100</f>
         <v>9.2428571428571464E-3</v>
       </c>
@@ -4711,41 +4651,36 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="5">
         <f>B24-B23</f>
         <v>-1.0676086169829312E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-    </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="21">
         <f>I7+K13-I16+I20</f>
         <v>6.4386891566194041E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4771,18 +4706,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4791,7 +4726,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4825,142 +4760,141 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>350218</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>324297</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>405793</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>1117955</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>913207</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>736031</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>629077</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>1314867</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>2308</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>2382</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>2122</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>4064</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>7478</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>4948</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>3674</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>1685</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <f>((270/366)*0.68%)+((96/366)*0.18%)</f>
         <v>5.4885245901639349E-3</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <f>AVERAGE(C7:I7)</f>
         <v>5.8983606557377046E-3</v>
       </c>
-      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>B6/B7</f>
         <v>329714.28571428568</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" ref="C8:I8" si="0">C6/C7</f>
         <v>350294.11764705885</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>312058.82352941181</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>597647.0588235294</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>1099705.8823529412</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>727647.0588235294</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>669396.65471923526</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>936111.11111111112</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="21"/>
       <c r="L8" t="s">
         <v>131</v>
       </c>
@@ -4974,375 +4908,372 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>8538</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>10266</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>9688</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>16633</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>28168</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>22036</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>16847</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>19764</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="5"/>
       <c r="L10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>950</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>1134</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>1113</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>2015</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>4030</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>3336</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>2435</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>2294</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <f t="shared" ref="B12:I12" si="1">B11/B10</f>
         <v>0.11126727570859686</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>0.11046171829339567</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>0.11488439306358382</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>0.12114471231888414</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <f>F11/F10</f>
         <v>0.14307015052541891</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>0.15138863677618442</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>0.1445361191903603</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <f t="shared" si="1"/>
         <v>0.11606962153410241</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <f>AVERAGE(C12:I12)</f>
         <v>0.12879362167170424</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f>B11/B8</f>
         <v>2.8812824956672449E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:I13" si="2">C11/C8</f>
         <v>3.2372795969773296E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>3.5666352497643727E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>3.3715551181102365E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f>F11/F8</f>
         <v>3.6646162075421236E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>4.58464025869038E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>3.6376040764967833E-3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>2.4505637982195844E-3</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <f>AVERAGE(C13:I13)</f>
         <v>3.5018420436858299E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>93</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>172</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>188</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>267</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>495</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>335</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>270</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>782</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <f>B15/B8</f>
         <v>2.8206239168110923E-4</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <f>C15/C8</f>
         <v>4.9101595298068842E-4</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <f t="shared" ref="D16:I16" si="3">D15/D8</f>
         <v>6.0245051837888781E-4</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <f t="shared" si="3"/>
         <v>4.4675196850393699E-4</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <f>F15/F8</f>
         <v>4.5012035303557097E-4</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <f t="shared" si="3"/>
         <v>4.6038803556992726E-4</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <f t="shared" si="3"/>
         <v>4.0334829595652219E-4</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="14">
         <f t="shared" si="3"/>
         <v>8.3537091988130567E-4</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <f>AVERAGE(C16:I16)</f>
         <v>5.2706372061526281E-4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="22">
         <f>12930/B5</f>
         <v>3.6919861343506048E-2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="22">
         <f>28180/C5</f>
         <v>8.6895654292207455E-2</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="22">
         <f>22862/D5</f>
         <v>5.6339069427023138E-2</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="22">
         <v>0.13930000000000001</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="22">
         <v>0.1368</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="22">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="22">
         <v>0.19939999999999999</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="22">
         <v>0.107</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>276</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>150</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>318</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>903</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>754</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>686</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>366</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>556</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <f>B19/B8</f>
         <v>8.3708838821490471E-4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <f t="shared" ref="C20:I20" si="4">C19/C8</f>
         <v>4.282115869017632E-4</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <f t="shared" si="4"/>
         <v>1.0190386427898208E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <f t="shared" si="4"/>
         <v>1.5109251968503938E-3</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <f t="shared" si="4"/>
         <v>6.856378710885263E-4</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <f t="shared" si="4"/>
         <v>9.4276475343573168E-4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <f t="shared" si="4"/>
         <v>5.4676102340773006E-4</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
         <v>5.9394658753709193E-4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <f>AVERAGE(C20:I20)</f>
         <v>8.1818366600157962E-4</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="5"/>
-      <c r="L21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="L22" s="8"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="5">
         <f>J7+J13-J16+J20</f>
         <v>9.6913226448098518E-3</v>
       </c>
@@ -5351,10 +5282,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="5">
         <f>TrackingDifference!M40/100</f>
         <v>8.7999999999999919E-3</v>
       </c>
@@ -5363,41 +5294,36 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="5">
         <f>B24-B23</f>
         <v>-8.9132264480985997E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="21">
         <f>I7+J13+AVERAGE(G20:H20)-AVERAGE(F16:H16)</f>
         <v>5.6086527039202212E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="29"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5419,13 +5345,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5434,7 +5360,7 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5451,37 +5377,37 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>861947</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>1103291</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>4193473</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>1886</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>3207</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>9212</v>
       </c>
       <c r="G6" t="s">
@@ -5489,37 +5415,37 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <f>AVERAGE(C7:D7)</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>B6/B7</f>
         <v>538857.14285714284</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f>C6/C7</f>
         <v>916285.71428571432</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f>D6/D7</f>
         <v>2632000</v>
       </c>
@@ -5533,288 +5459,286 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>12293</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="41">
         <v>17604</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="41">
         <v>46407</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>1482</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>2212</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>5654</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <f>B11/B10</f>
         <v>0.12055641421947449</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <f>C11/C10</f>
         <v>0.12565326062258578</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <f>D11/D10</f>
         <v>0.12183506798543323</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <f>AVERAGE(C12:D12)</f>
         <v>0.1237441643040095</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f>B11/B8</f>
         <v>2.7502651113467656E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <f>C11/C8</f>
         <v>2.4140941690053009E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f>D11/D8</f>
         <v>2.1481762917933129E-3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <f>AVERAGE(C13:D13)</f>
         <v>2.2811352303993069E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>250</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>756</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>1908</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <f>B15/B8</f>
         <v>4.6394485683987275E-4</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="23">
         <f>C15/C8</f>
         <v>8.2507015902712818E-4</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="23">
         <f>D15/D8</f>
         <v>7.2492401215805467E-4</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f>AVERAGE(C16:D16)</f>
         <v>7.7499708559259143E-4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="22">
         <v>0.1915</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="22">
         <v>0.1986</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="22">
         <v>0.22570000000000001</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>271</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>533</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>1108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <f>B19/B8</f>
         <v>5.0291622481442202E-4</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <f>C19/C8</f>
         <v>5.8169628936700966E-4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <f>D19/D8</f>
         <v>4.2097264437689969E-4</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <f>AVERAGE(C20:D20)</f>
         <v>5.0133446687195471E-4</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <f>E7+E13-E16+E20</f>
         <v>5.5074726116786706E-3</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="5">
         <f>TrackingDifference!M19/100</f>
         <v>5.0499999999999903E-3</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="5">
         <f>B24-B23</f>
         <v>-4.5747261167868036E-4</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="15"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="12"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5839,18 +5763,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5888,147 +5812,146 @@
       <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>427535</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>342236</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>304119</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>361091</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>444594</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>307508</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>210729</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>380904</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>2914</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>2987</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>1990</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>2533</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>3152</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>2713</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>2053</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>2047</v>
       </c>
-      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <f>AVERAGE(C7:I7)</f>
         <v>7.4000000000000021E-3</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>B6/B7</f>
         <v>393783.78378378379</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" ref="C8:I8" si="0">C6/C7</f>
         <v>403648.64864864864</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>268918.91891891893</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>342297.29729729728</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>425945.94594594592</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>366621.6216216216</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>277432.43243243243</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>276621.6216216216</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="21"/>
+      <c r="L8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6041,112 +5964,112 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>9100</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>9515</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>6692</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>7276</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>9853</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>9792</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>7586</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>6349</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="5"/>
       <c r="L10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>1037</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <f>1078+163</f>
         <v>1241</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>742</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>928</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>1434</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>2132</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>1241</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>3929</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="5"/>
       <c r="L11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <f t="shared" ref="B12:I12" si="1">B11/B10</f>
         <v>0.11395604395604396</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>0.13042564372044141</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>0.11087866108786611</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>0.12754260582737767</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>0.14553942961534558</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>0.21772875816993464</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>0.16359082520432375</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <f t="shared" si="1"/>
         <v>0.61883761222239719</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <f>AVERAGE(C12:I12)</f>
         <v>0.21636336226395519</v>
       </c>
@@ -6155,42 +6078,42 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f>B11/B8</f>
         <v>2.6334248455730956E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:I13" si="2">C11/C8</f>
         <v>3.0744559758955473E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>2.7591959798994974E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>2.7110935649427557E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>3.3666243654822338E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>5.8152598599336535E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>4.4731612274719924E-3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>1.4203517342452371E-2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <f>AVERAGE(C13:I13)</f>
         <v>5.2004726165825787E-3</v>
       </c>
@@ -6199,233 +6122,230 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>848</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>1320</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>1337</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>1589</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>2300</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>2187</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>1175</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>862</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="5"/>
       <c r="L15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <f>B15/B8</f>
         <v>2.1534660260809882E-3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <f>C15/C8</f>
         <v>3.2701707398727822E-3</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <f t="shared" ref="D16:I16" si="3">D15/D8</f>
         <v>4.9717587939698488E-3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <f t="shared" si="3"/>
         <v>4.6421634425582317E-3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <f t="shared" si="3"/>
         <v>5.3997461928934013E-3</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <f t="shared" si="3"/>
         <v>5.9652782897161817E-3</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <f t="shared" si="3"/>
         <v>4.2352654651729178E-3</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="14">
         <f t="shared" si="3"/>
         <v>3.1161700048851983E-3</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <f>AVERAGE(C16:I16)</f>
         <v>4.5143647041526519E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="22">
         <f>52694/B5</f>
         <v>0.12325072801057223</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="22">
         <f>70814/C5</f>
         <v>0.20691569560186537</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="22">
         <f>58576/D5</f>
         <v>0.19260881431281834</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="22">
         <v>0.13739999999999999</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="22">
         <v>0.15029999999999999</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="22">
         <v>0.21609999999999999</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="22">
         <v>0.11650000000000001</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="22">
         <v>0.2135</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="5"/>
       <c r="L17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>622</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>712</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>349</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>512</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>405</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>466</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>309</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>377</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <f>B19/B8</f>
         <v>1.5795470144131778E-3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <f t="shared" ref="C20:I20" si="4">C19/C8</f>
         <v>1.7639102778707733E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <f t="shared" si="4"/>
         <v>1.2977889447236179E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <f t="shared" si="4"/>
         <v>1.4957757599684169E-3</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <f t="shared" si="4"/>
         <v>9.5082487309644677E-4</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <f t="shared" si="4"/>
         <v>1.2710652414301513E-3</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <f t="shared" si="4"/>
         <v>1.1137847053093034E-3</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
         <v>1.3628724963361018E-3</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <f>AVERAGE(C20:I20)</f>
         <v>1.3222888998192586E-3</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="5"/>
-      <c r="L21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="L22" s="8"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="5">
         <f>J7+J13-J16+J20</f>
         <v>9.4083968122491875E-3</v>
       </c>
@@ -6434,10 +6354,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="5">
         <f>TrackingDifference!M26/100</f>
         <v>7.2428571428571334E-3</v>
       </c>
@@ -6446,41 +6366,36 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="5">
         <f>B24-B23</f>
         <v>-2.1655396693920541E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="21">
         <f>I7+J13-J16+J20</f>
         <v>9.408396812249184E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6503,17 +6418,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6522,7 +6437,7 @@
       <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6556,129 +6471,128 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>24256</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>151277</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>1038524</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>1613172</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>1651193</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>1606821</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>6264043</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>209</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>1984</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>3734</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>4812</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>5778</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>9187</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f>AVERAGE(C7:H7)</f>
         <v>2.9999999999999996E-3</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f t="shared" ref="B8:H8" si="0">B6/B7</f>
         <v>10000</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" si="0"/>
         <v>69666.666666666672</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>661333.33333333337</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>1244666.6666666667</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>1604000</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>1926000</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>3062333.3333333335</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="K8" s="2" t="s">
+      <c r="I8" s="5"/>
+      <c r="K8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6690,372 +6604,369 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>279</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>2604</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>21736</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>38305</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>56439</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>61654</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>109718</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="5"/>
       <c r="K10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>29</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>282</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>2230</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>3979</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>5829</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>6808</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>11053</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <f t="shared" ref="B12:G12" si="1">B11/B10</f>
         <v>0.1039426523297491</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>0.10829493087557604</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>0.10259477364740523</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>0.10387677848844798</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>0.10327964705257003</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>0.11042268141564213</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <f t="shared" ref="H12" si="2">H11/H10</f>
         <v>0.10074007911190506</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <f>AVERAGE(C12:H12)</f>
         <v>0.10486814843192442</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="44" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f t="shared" ref="B13:G13" si="3">B11/B8</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <f>C11/C8</f>
         <v>4.0478468899521527E-3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f t="shared" si="3"/>
         <v>3.3719758064516127E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f>E11/E8</f>
         <v>3.1968398500267807E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
         <v>3.6340399002493767E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <f t="shared" si="3"/>
         <v>3.5347871235721705E-3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" ref="H13" si="4">H11/H8</f>
         <v>3.6093392837705453E-3</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f>AVERAGE(C13:H13)</f>
         <v>3.5658048090037729E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <f>B10/B8</f>
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <f t="shared" ref="C14:G14" si="5">C10/C8</f>
         <v>3.737799043062201E-2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <f t="shared" si="5"/>
         <v>3.2866935483870964E-2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <f t="shared" si="5"/>
         <v>3.0775307980717728E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <f t="shared" si="5"/>
         <v>3.5186408977556108E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <f t="shared" si="5"/>
         <v>3.201142263759086E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f t="shared" ref="H14" si="6">H10/H8</f>
         <v>3.5828235550234025E-2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f>AVERAGE(C14:H14)</f>
         <v>3.400771684343195E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>74</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>195</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>342</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>606</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>678</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="23">
         <f>B16/B8</f>
         <v>1E-4</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="23">
         <f t="shared" ref="C17:H17" si="7">C16/C8</f>
         <v>1.0047846889952153E-4</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="23">
         <f t="shared" si="7"/>
         <v>1.1189516129032257E-4</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="23">
         <f>E16/E8</f>
         <v>1.5666845206213176E-4</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="23">
         <f t="shared" si="7"/>
         <v>2.1321695760598503E-4</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <f t="shared" si="7"/>
         <v>3.1464174454828663E-4</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="23">
         <f t="shared" si="7"/>
         <v>2.2139980407096983E-4</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f>AVERAGE(C17:H17)</f>
         <v>1.8638343141286955E-4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="22">
         <f>56/B5</f>
         <v>2.3087071240105541E-3</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="22">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="22">
         <v>0.12709999999999999</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="22">
         <v>0.12590000000000001</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="22">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>16</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>86</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>866</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
         <v>1656</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <v>1131</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>4034</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <f t="shared" ref="B21:H21" si="8">B20/B8</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <f t="shared" si="8"/>
         <v>1.2344497607655503E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <f t="shared" si="8"/>
         <v>1.3094758064516128E-3</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3">
         <f t="shared" si="8"/>
         <v>1.032418952618454E-3</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <f t="shared" si="8"/>
         <v>5.8722741433021809E-4</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <f t="shared" si="8"/>
         <v>1.3172961793839119E-3</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <f>AVERAGE(C21:H21)</f>
         <v>1.0961736227099493E-3</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="5"/>
-      <c r="K22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="5">
         <f>I7+I13-I17+I21</f>
         <v>7.475595000300852E-3</v>
       </c>
@@ -7064,10 +6975,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="5">
         <f>TrackingDifference!M47/100</f>
         <v>6.6166666666666622E-3</v>
       </c>
@@ -7076,41 +6987,36 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="5">
         <f>B25-B24</f>
         <v>-8.5892833363418984E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-    </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="21">
         <f>H7++I13-H17+H21</f>
         <v>7.6617011843167155E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7121,7 +7027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDDF6C-AD69-4170-ABB3-6C33D8EBF3CF}">
   <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -7220,47 +7126,47 @@
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:C5" si="0">B4/B3</f>
         <v>1.859504132231405E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>3.4624896949711458E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <f>D4/D3</f>
         <v>2.8592445709534012E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:H5" si="1">E4/E3</f>
         <v>1.7205394882228109E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>1.2886037407568508E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>9.3348554253428317E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>2.1289670093326336E-2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <f>AVERAGE(C5:H5)</f>
         <v>2.0655550077951876E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J6" s="7"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7287,7 +7193,7 @@
       <c r="H8">
         <v>24017</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="5"/>
       <c r="L8" t="s">
         <v>143</v>
       </c>
@@ -7317,56 +7223,56 @@
       <c r="H9">
         <v>6083</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:C10" si="2">B9/B8</f>
         <v>0.25019218260303944</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <f t="shared" si="2"/>
         <v>0.24998421019389883</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <f>D9/D8</f>
         <v>0.25208794185364092</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <f t="shared" ref="E10:H10" si="3">E9/E8</f>
         <v>0.24989503416160921</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <f t="shared" si="3"/>
         <v>0.24984770690105298</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <f t="shared" si="3"/>
         <v>0.24978329962438603</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <f t="shared" si="3"/>
         <v>0.25327892742640629</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <f>AVERAGE(C10:H10)</f>
         <v>0.25081285336016573</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J11" s="7"/>
-      <c r="M11" s="56"/>
+      <c r="J11" s="5"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -7393,12 +7299,12 @@
       <c r="H13">
         <v>8725</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="5"/>
       <c r="L13" t="s">
         <v>143</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -7425,54 +7331,54 @@
       <c r="H14">
         <v>1301</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <f t="shared" ref="B15:C15" si="4">B14/B13</f>
         <v>0.15219249227532708</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <f t="shared" si="4"/>
         <v>0.15182879377431907</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="11">
         <f>D14/D13</f>
         <v>0.14376652629517186</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <f t="shared" ref="E15:H15" si="5">E14/E13</f>
         <v>0.14997217584863662</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <f t="shared" si="5"/>
         <v>0.14997696913864578</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <f t="shared" si="5"/>
         <v>0.14984650805832694</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="11">
         <f t="shared" si="5"/>
         <v>0.14911174785100287</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <f>AVERAGE(C15:H15)</f>
         <v>0.14908378682768386</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J16" s="7"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -7499,7 +7405,7 @@
       <c r="H18">
         <v>12184</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="5"/>
       <c r="L18" t="s">
         <v>143</v>
       </c>
@@ -7529,53 +7435,53 @@
       <c r="H19">
         <v>1737</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="11">
         <f t="shared" ref="B20:C20" si="6">B19/B18</f>
         <v>0.17108825121819166</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <f t="shared" si="6"/>
         <v>0.14389505549949547</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <f>D19/D18</f>
         <v>0.14319129462015662</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <f t="shared" ref="E20:H20" si="7">E19/E18</f>
         <v>0.14075984525344709</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <f t="shared" si="7"/>
         <v>0.14652620581577572</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="11">
         <f t="shared" si="7"/>
         <v>0.14067669172932332</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="11">
         <f t="shared" si="7"/>
         <v>0.1425640183847669</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <f>AVERAGE(C20:H20)</f>
         <v>0.14293551855049416</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="7"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -7602,7 +7508,7 @@
       <c r="H23">
         <v>178034</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="5"/>
       <c r="L23" t="s">
         <v>144</v>
       </c>
@@ -7632,41 +7538,41 @@
       <c r="H24">
         <v>13472</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <f t="shared" ref="B25:F25" si="8">B24/B23</f>
         <v>7.0472644397037196E-2</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <f t="shared" si="8"/>
         <v>5.5717001559205788E-2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <f t="shared" si="8"/>
         <v>7.0775718080008765E-2</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <f t="shared" si="8"/>
         <v>7.8463013789226543E-2</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="11">
         <f t="shared" si="8"/>
         <v>7.6246671077887213E-2</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="11">
         <f>G24/G23</f>
         <v>0.10552285091061996</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="11">
         <f>H24/H23</f>
         <v>7.5670939258793271E-2</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <f>AVERAGE(C25:H25)</f>
         <v>7.7066032445956917E-2</v>
       </c>
@@ -7675,7 +7581,7 @@
       <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <f>AVERAGE(IEMA!E12:I12)</f>
         <v>0.13524184806899003</v>
       </c>

--- a/iShares/iShares-costs.xlsx
+++ b/iShares/iShares-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1143" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD91384-646B-43B8-A0D3-2F31A933E543}"/>
+  <xr:revisionPtr revIDLastSave="1184" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F464F8-9253-4936-A826-920EF0732C67}"/>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="1500" windowWidth="21870" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{BC3B4BF2-0E46-4EF7-A78C-8FC9B39EDDF8}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{BC3B4BF2-0E46-4EF7-A78C-8FC9B39EDDF8}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{4A660686-6E86-4023-9ACD-41E13C92ACF2}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{4A660686-6E86-4023-9ACD-41E13C92ACF2}">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="151">
   <si>
     <t>Transaction costs</t>
   </si>
@@ -545,6 +545,15 @@
   </si>
   <si>
     <t>jul</t>
+  </si>
+  <si>
+    <t>iShares IWMO</t>
+  </si>
+  <si>
+    <t>MSCI World Momentum Index (USD) gross</t>
+  </si>
+  <si>
+    <t>MSCI World Momentum Index (USD) NET</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB11DA5-57F8-4691-A562-35D1BBAF2472}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1191,20 +1200,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045330D2-0890-4532-8ABA-CDB206A2E066}">
-  <dimension ref="B1:O48"/>
+  <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C1" s="35">
         <v>2014</v>
       </c>
@@ -1229,18 +1238,21 @@
       <c r="J1" s="35">
         <v>2021</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="35">
+        <v>2022</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
@@ -1268,15 +1280,16 @@
       <c r="J2" s="25">
         <v>21.9</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="25"/>
+      <c r="L2" s="27">
         <f>AVERAGE(C2:J2)</f>
         <v>11.427500000000002</v>
       </c>
-      <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>44</v>
       </c>
@@ -1304,12 +1317,13 @@
       <c r="J3" s="25">
         <v>22.35</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
@@ -1337,12 +1351,13 @@
       <c r="J4" s="25">
         <v>21.82</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>46</v>
       </c>
@@ -1378,15 +1393,16 @@
         <f t="shared" si="0"/>
         <v>0.45000000000000284</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="27">
+      <c r="M5" s="26"/>
+      <c r="N5" s="27">
         <f>AVERAGE(C5:J5)</f>
         <v>0.50375000000000036</v>
       </c>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -1422,21 +1438,22 @@
         <f t="shared" si="1"/>
         <v>7.9999999999998295E-2</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27">
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27">
         <f>AVERAGE(C6:J6)</f>
         <v>9.4999999999999793E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>48</v>
       </c>
@@ -1461,14 +1478,15 @@
       <c r="J9" s="30">
         <v>-0.24</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="30"/>
+      <c r="L9" s="27">
         <f>AVERAGE(C9:J9)</f>
         <v>7.5628571428571423</v>
       </c>
-      <c r="L9" s="31"/>
       <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>118</v>
       </c>
@@ -1493,11 +1511,12 @@
       <c r="J10" s="30">
         <v>0.06</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="31"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>119</v>
       </c>
@@ -1522,11 +1541,12 @@
       <c r="J11" s="32">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>46</v>
       </c>
@@ -1558,17 +1578,18 @@
         <f t="shared" ref="J12" si="3">J10-J9</f>
         <v>0.3</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="M12" s="33">
+      <c r="K12" s="30"/>
+      <c r="L12" s="26"/>
+      <c r="N12" s="33">
         <f>AVERAGE(E12:J12)</f>
         <v>0.41500000000000109</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12">
+      <c r="O12" s="31"/>
+      <c r="P12">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>47</v>
       </c>
@@ -1600,23 +1621,24 @@
         <f t="shared" ref="J13" si="5">J9-J11</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33">
+      <c r="K13" s="30"/>
+      <c r="L13" s="26"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33">
         <f>AVERAGE(E13:J13)</f>
         <v>-2.0000000000000611E-2</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>124</v>
       </c>
@@ -1634,13 +1656,14 @@
       <c r="J16" s="31">
         <v>15.81</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="31"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>120</v>
       </c>
@@ -1658,13 +1681,14 @@
       <c r="J17" s="31">
         <v>16.18</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="31"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>121</v>
       </c>
@@ -1682,13 +1706,14 @@
       <c r="J18" s="31">
         <v>15.75</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="31"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>46</v>
       </c>
@@ -1709,18 +1734,19 @@
         <f>J17-J16</f>
         <v>0.36999999999999922</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="33">
+      <c r="K19" s="31"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="33">
         <f>AVERAGE(I19:J19)</f>
         <v>0.50499999999999901</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31">
+      <c r="O19" s="31"/>
+      <c r="P19" s="31">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>47</v>
       </c>
@@ -1736,22 +1762,23 @@
         <f t="shared" si="6"/>
         <v>6.0000000000000497E-2</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="N20" s="37">
+      <c r="K20" s="30"/>
+      <c r="L20" s="26"/>
+      <c r="O20" s="37">
         <f>AVERAGE(I20:J20)</f>
         <v>-3.5000000000000142E-2</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>64</v>
       </c>
@@ -1776,12 +1803,12 @@
       <c r="J23">
         <v>18.170000000000002</v>
       </c>
-      <c r="K23" s="27">
+      <c r="L23" s="27">
         <f>AVERAGE(C23:J23)</f>
         <v>8.2528571428571436</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>122</v>
       </c>
@@ -1806,9 +1833,9 @@
       <c r="J24">
         <v>19.29</v>
       </c>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>123</v>
       </c>
@@ -1833,9 +1860,9 @@
       <c r="J25">
         <v>18.75</v>
       </c>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>46</v>
       </c>
@@ -1867,13 +1894,13 @@
         <f t="shared" si="7"/>
         <v>1.1199999999999974</v>
       </c>
-      <c r="K26" s="26"/>
-      <c r="M26" s="37">
+      <c r="L26" s="26"/>
+      <c r="N26" s="37">
         <f>AVERAGE(D26:J26)</f>
         <v>0.72428571428571331</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>47</v>
       </c>
@@ -1905,13 +1932,13 @@
         <f t="shared" si="8"/>
         <v>-0.57999999999999829</v>
       </c>
-      <c r="K27" s="26"/>
-      <c r="N27" s="37">
+      <c r="L27" s="26"/>
+      <c r="O27" s="37">
         <f>AVERAGE(D27:J27)</f>
         <v>-0.35000000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>71</v>
       </c>
@@ -1936,12 +1963,12 @@
       <c r="J30">
         <v>-2.64</v>
       </c>
-      <c r="K30" s="37">
+      <c r="L30" s="37">
         <f>AVERAGE(D30:J30)</f>
         <v>7.055714285714286</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>50</v>
       </c>
@@ -1967,7 +1994,7 @@
         <v>-2.2200000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
         <v>49</v>
       </c>
@@ -1993,7 +2020,7 @@
         <v>-2.54</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>46</v>
       </c>
@@ -2025,12 +2052,12 @@
         <f t="shared" si="9"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="M33" s="37">
+      <c r="N33" s="37">
         <f>AVERAGE(D33:J33)</f>
         <v>0.9242857142857146</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>47</v>
       </c>
@@ -2062,21 +2089,21 @@
         <f t="shared" si="10"/>
         <v>-0.10000000000000009</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37">
+      <c r="N34" s="37"/>
+      <c r="O34" s="37">
         <f>AVERAGE(D34:J34)</f>
         <v>-0.54000000000000048</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M35" s="37"/>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N35" s="37"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M36" s="37"/>
+      <c r="O35" s="37"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N36" s="37"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="37"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
         <v>76</v>
       </c>
@@ -2101,10 +2128,10 @@
       <c r="J37">
         <v>-2.59</v>
       </c>
-      <c r="M37" s="37"/>
       <c r="N37" s="37"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="37"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
         <v>50</v>
       </c>
@@ -2129,10 +2156,10 @@
       <c r="J38">
         <v>-2.2200000000000002</v>
       </c>
-      <c r="M38" s="37"/>
       <c r="N38" s="37"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="37"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>49</v>
       </c>
@@ -2157,10 +2184,10 @@
       <c r="J39">
         <v>-2.54</v>
       </c>
-      <c r="M39" s="37"/>
       <c r="N39" s="37"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="37"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
         <v>46</v>
       </c>
@@ -2192,13 +2219,13 @@
         <f t="shared" si="11"/>
         <v>0.36999999999999966</v>
       </c>
-      <c r="M40" s="37">
+      <c r="N40" s="37">
         <f>AVERAGE(D40:J40)</f>
         <v>0.87999999999999923</v>
       </c>
-      <c r="N40" s="37"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="37"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
         <v>47</v>
       </c>
@@ -2230,12 +2257,12 @@
         <f t="shared" si="12"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="N41" s="37">
+      <c r="O41" s="37">
         <f>AVERAGE(D41:J41)</f>
         <v>-0.49571428571428516</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
         <v>83</v>
       </c>
@@ -2261,7 +2288,7 @@
         <v>20.03</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>84</v>
       </c>
@@ -2287,7 +2314,7 @@
         <v>20.77</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
         <v>85</v>
       </c>
@@ -2313,7 +2340,7 @@
         <v>20.04</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
         <v>46</v>
       </c>
@@ -2345,15 +2372,16 @@
         <f>J45-J44</f>
         <v>0.73999999999999844</v>
       </c>
-      <c r="M47" s="37">
+      <c r="K47" s="37"/>
+      <c r="N47" s="37">
         <f>AVERAGE(E47:J47)</f>
         <v>0.66166666666666618</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
         <v>47</v>
       </c>
@@ -2385,12 +2413,121 @@
         <f t="shared" si="14"/>
         <v>9.9999999999980105E-3</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <f>SUM(E48:J48)</f>
         <v>-0.2200000000000033</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51">
+        <v>3.83</v>
+      </c>
+      <c r="E51">
+        <v>4.05</v>
+      </c>
+      <c r="F51">
+        <v>31.91</v>
+      </c>
+      <c r="G51">
+        <v>-2.97</v>
+      </c>
+      <c r="H51">
+        <v>27.44</v>
+      </c>
+      <c r="I51">
+        <v>27.9</v>
+      </c>
+      <c r="J51">
+        <v>14.31</v>
+      </c>
+      <c r="K51">
+        <v>-17.87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52">
+        <v>4.54</v>
+      </c>
+      <c r="E52">
+        <v>4.75</v>
+      </c>
+      <c r="F52">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="G52">
+        <v>-2.38</v>
+      </c>
+      <c r="H52">
+        <v>28.26</v>
+      </c>
+      <c r="I52">
+        <v>28.7</v>
+      </c>
+      <c r="J52">
+        <v>14.95</v>
+      </c>
+      <c r="K52">
+        <v>-17.34</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <f>D52-D51</f>
+        <v>0.71</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:K54" si="15">E52-E51</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="15"/>
+        <v>0.68000000000000327</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="15"/>
+        <v>0.5900000000000003</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="15"/>
+        <v>0.82000000000000028</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="15"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="15"/>
+        <v>0.63999999999999879</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="15"/>
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="N54" s="37">
+        <f>AVERAGE(D54:K54)</f>
+        <v>0.68375000000000052</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3337,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="5">
-        <f>TrackingDifference!M5/100</f>
+        <f>TrackingDifference!N5/100</f>
         <v>5.0375000000000038E-3</v>
       </c>
       <c r="C26" t="s">
@@ -3952,7 +4089,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="5">
-        <f>TrackingDifference!M12/100</f>
+        <f>TrackingDifference!N12/100</f>
         <v>4.1500000000000113E-3</v>
       </c>
       <c r="C24" t="s">
@@ -4643,7 +4780,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="5">
-        <f>TrackingDifference!M33/100</f>
+        <f>TrackingDifference!N33/100</f>
         <v>9.2428571428571464E-3</v>
       </c>
       <c r="C24" t="s">
@@ -5286,7 +5423,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="5">
-        <f>TrackingDifference!M40/100</f>
+        <f>TrackingDifference!N40/100</f>
         <v>8.7999999999999919E-3</v>
       </c>
       <c r="C24" t="s">
@@ -5657,7 +5794,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="5">
-        <f>TrackingDifference!M19/100</f>
+        <f>TrackingDifference!N19/100</f>
         <v>5.0499999999999903E-3</v>
       </c>
       <c r="C24" s="45" t="s">
@@ -6358,7 +6495,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="5">
-        <f>TrackingDifference!M26/100</f>
+        <f>TrackingDifference!N26/100</f>
         <v>7.2428571428571334E-3</v>
       </c>
       <c r="C24" t="s">
@@ -6979,7 +7116,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="5">
-        <f>TrackingDifference!M47/100</f>
+        <f>TrackingDifference!N47/100</f>
         <v>6.6166666666666622E-3</v>
       </c>
       <c r="C25" t="s">

--- a/iShares/iShares-costs.xlsx
+++ b/iShares/iShares-costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1184" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F464F8-9253-4936-A826-920EF0732C67}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -743,10 +743,10 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB11DA5-57F8-4691-A562-35D1BBAF2472}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045330D2-0890-4532-8ABA-CDB206A2E066}">
   <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>

--- a/iShares/iShares-costs.xlsx
+++ b/iShares/iShares-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/iShares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1184" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F464F8-9253-4936-A826-920EF0732C67}"/>
+  <xr:revisionPtr revIDLastSave="1222" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2382118-BDB9-4115-9C55-B8D1C93D3D02}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanames" sheetId="6" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="152">
   <si>
     <t>Transaction costs</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>MSCI World Momentum Index (USD) NET</t>
+  </si>
+  <si>
+    <t>Laatste die ik heb</t>
   </si>
 </sst>
 </file>
@@ -1024,62 +1027,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB11DA5-57F8-4691-A562-35D1BBAF2472}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="108.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>136</v>
       </c>
@@ -1089,8 +1093,11 @@
       <c r="D16" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>108</v>
       </c>
@@ -1100,8 +1107,11 @@
       <c r="D17" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>109</v>
       </c>
@@ -1111,8 +1121,11 @@
       <c r="D18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>110</v>
       </c>
@@ -1123,7 +1136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>111</v>
       </c>
@@ -1134,7 +1147,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -1145,7 +1158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>113</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>114</v>
       </c>
@@ -1166,11 +1179,14 @@
       <c r="D23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>145</v>
       </c>
@@ -1180,8 +1196,11 @@
       <c r="D26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>99</v>
       </c>
@@ -1190,6 +1209,9 @@
       </c>
       <c r="D27" t="s">
         <v>147</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -3538,22 +3560,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85662431-B8A3-40F8-9BF4-EC97DECEFC14}">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="104.85546875" customWidth="1"/>
+    <col min="2" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="104.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
@@ -3566,19 +3588,20 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="7"/>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2016</v>
       </c>
@@ -3600,12 +3623,15 @@
       <c r="H4" s="1">
         <v>2022</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3630,11 +3656,14 @@
       <c r="H5" s="13">
         <v>17747108</v>
       </c>
-      <c r="L5" t="s">
+      <c r="I5" s="13">
+        <v>16594888</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3659,11 +3688,14 @@
       <c r="H6" s="13">
         <v>34660</v>
       </c>
-      <c r="L6" t="s">
+      <c r="I6" s="13">
+        <v>28757</v>
+      </c>
+      <c r="M6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3688,20 +3720,23 @@
       <c r="H7" s="14">
         <v>1.8E-3</v>
       </c>
-      <c r="I7" s="5">
-        <f>AVERAGE(B7:H7)</f>
-        <v>2.1285714285714285E-3</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="I7" s="14">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <f>AVERAGE(B7:I7)</f>
+        <v>2.0874999999999999E-3</v>
+      </c>
+      <c r="M7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="13">
-        <f t="shared" ref="B8:H8" si="0">B6/B7</f>
+        <f t="shared" ref="B8:I8" si="0">B6/B7</f>
         <v>1272800</v>
       </c>
       <c r="C8" s="13">
@@ -3728,11 +3763,15 @@
         <f t="shared" si="0"/>
         <v>19255555.555555556</v>
       </c>
-      <c r="L8" t="s">
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>15976111.111111112</v>
+      </c>
+      <c r="M8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3740,9 +3779,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3767,11 +3807,14 @@
       <c r="H10" s="13">
         <v>459852</v>
       </c>
-      <c r="L10" t="s">
+      <c r="I10">
+        <v>516015</v>
+      </c>
+      <c r="M10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3794,18 +3837,22 @@
         <v>44319</v>
       </c>
       <c r="H11" s="13">
-        <v>150341</v>
-      </c>
-      <c r="L11" t="s">
+        <f>51999+1228</f>
+        <v>53227</v>
+      </c>
+      <c r="I11" s="13">
+        <v>56584</v>
+      </c>
+      <c r="M11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="22">
-        <f t="shared" ref="B12:H12" si="1">B11/B10</f>
+        <f t="shared" ref="B12:I12" si="1">B11/B10</f>
         <v>0.11457254631227706</v>
       </c>
       <c r="C12" s="22">
@@ -3830,22 +3877,26 @@
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>0.326933448152884</v>
-      </c>
-      <c r="I12" s="5">
-        <f>AVERAGE(B12:H12)</f>
-        <v>0.15519104140437467</v>
-      </c>
-      <c r="L12" t="s">
+        <v>0.11574811026156241</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10965572706219781</v>
+      </c>
+      <c r="J12" s="5">
+        <f>AVERAGE(B12:I12)</f>
+        <v>0.12310095987518736</v>
+      </c>
+      <c r="M12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" ref="B13:H13" si="2">B11/B8</f>
+        <f t="shared" ref="B13:I13" si="2">B11/B8</f>
         <v>3.1293211816467632E-3</v>
       </c>
       <c r="C13" s="14">
@@ -3870,14 +3921,18 @@
       </c>
       <c r="H13" s="14">
         <f t="shared" si="2"/>
-        <v>7.8076687824581645E-3</v>
-      </c>
-      <c r="I13" s="5">
-        <f>AVERAGE(B13:H13)</f>
-        <v>3.9316577860512786E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.7642412002308134E-3</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="2"/>
+        <v>3.5417880863789684E-3</v>
+      </c>
+      <c r="J13" s="5">
+        <f>AVERAGE(B13:I13)</f>
+        <v>3.2524956258138207E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -3885,11 +3940,12 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="L14" t="s">
+      <c r="I14" s="13"/>
+      <c r="M14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3914,13 +3970,16 @@
       <c r="H15" s="13">
         <v>19007</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="13">
+        <v>16552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="14">
-        <f t="shared" ref="B16:H16" si="3">B15/B8</f>
+        <f t="shared" ref="B16:I16" si="3">B15/B8</f>
         <v>4.7925832809553738E-4</v>
       </c>
       <c r="C16" s="14">
@@ -3947,15 +4006,19 @@
         <f t="shared" si="3"/>
         <v>9.8709174841315637E-4</v>
       </c>
-      <c r="I16" s="5">
-        <f>AVERAGE(B16:H16)</f>
-        <v>9.8936390783463846E-4</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="I16" s="23">
+        <f t="shared" si="3"/>
+        <v>1.0360468755433458E-3</v>
+      </c>
+      <c r="J16" s="5">
+        <f>AVERAGE(B16:I16)</f>
+        <v>9.9519927879822669E-4</v>
+      </c>
+      <c r="M16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3981,9 +4044,12 @@
       <c r="H17" s="22">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="22">
+        <v>0.1128</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3991,8 +4057,9 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4015,8 +4082,11 @@
       <c r="H19" s="13">
         <v>3944</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="13">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4045,12 +4115,16 @@
         <f>H19/H8</f>
         <v>2.0482400461627236E-4</v>
       </c>
-      <c r="I20" s="5">
-        <f>AVERAGE(B20:H20)</f>
-        <v>5.8064888448072945E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="23">
+        <f>I19/I8</f>
+        <v>2.3078207045241158E-4</v>
+      </c>
+      <c r="J20" s="5">
+        <f>AVERAGE(B20:I20)</f>
+        <v>5.3066791104811257E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="23"/>
@@ -4059,8 +4133,9 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4070,21 +4145,22 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="5">
-        <f>I7+I13-I16+I20</f>
-        <v>5.6515141912687984E-3</v>
+        <f>J7+J13-J16+J20</f>
+        <v>4.875464258063707E-3</v>
       </c>
       <c r="C23" t="s">
         <v>142</v>
       </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -4096,34 +4172,34 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="5">
         <f>B24-B23</f>
-        <v>-1.5015141912687871E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-7.2546425806369573E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="21">
-        <f>G7+I13-G16+G20</f>
-        <v>5.4243745745333003E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f>G7+J13-G16+G20</f>
+        <v>4.7452124142958419E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="5">
-        <f>B27-I13</f>
-        <v>1.4927167884820217E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <f>B27-J13</f>
+        <v>1.4927167884820213E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
     </row>
